--- a/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_TAL_A_FGI_glucose.xlsx
+++ b/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_TAL_A_FGI_glucose.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\repository_clones\Bioindustrial-Park\biorefineries\TAL\analyses\full\parameter_distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002A0300-ED3C-4B69-AB61-6366486A784C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0704E613-7E11-4668-8DFA-C3CE1FD78A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="89">
   <si>
     <t>Parameter name</t>
   </si>
@@ -125,9 +125,6 @@
     <t>Baseline</t>
   </si>
   <si>
-    <t>g/L/h</t>
-  </si>
-  <si>
     <t>feedstock.T = feedstock.T</t>
   </si>
   <si>
@@ -140,12 +137,6 @@
     <t>R303.ferm_ratio = x</t>
   </si>
   <si>
-    <t>spec.spec_2 = x</t>
-  </si>
-  <si>
-    <t>spec.spec_3 = x</t>
-  </si>
-  <si>
     <t>PowerUtility.price = x</t>
   </si>
   <si>
@@ -176,15 +167,6 @@
     <t>R302.acetate_loading = x</t>
   </si>
   <si>
-    <t>Fermentation TAL yield</t>
-  </si>
-  <si>
-    <t>Fermentation TAL titer</t>
-  </si>
-  <si>
-    <t>Fermentation TAL productivity</t>
-  </si>
-  <si>
     <t>Acetate unit price</t>
   </si>
   <si>
@@ -215,24 +197,12 @@
     <t>BT701.turbogenerator_efficiency = x</t>
   </si>
   <si>
-    <t>spec.desired_annual_production = x</t>
-  </si>
-  <si>
-    <t>Desired annual production</t>
-  </si>
-  <si>
-    <t>pure metric ton/y</t>
-  </si>
-  <si>
     <t>Product TAL storage time</t>
   </si>
   <si>
     <t>T620.tau = x</t>
   </si>
   <si>
-    <t xml:space="preserve">spec.spec_1 = x </t>
-  </si>
-  <si>
     <t>Centrifuge solids recovery</t>
   </si>
   <si>
@@ -321,6 +291,18 @@
   </si>
   <si>
     <t>Load statement</t>
+  </si>
+  <si>
+    <t>Feedstock capacity</t>
+  </si>
+  <si>
+    <t>Feedstock</t>
+  </si>
+  <si>
+    <t>kg/h</t>
+  </si>
+  <si>
+    <t>feedstock.F_mass = x</t>
   </si>
 </sst>
 </file>
@@ -689,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A19" sqref="A19:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -734,10 +716,10 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
@@ -768,12 +750,12 @@
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
@@ -782,13 +764,13 @@
         <v>26</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E3" s="6">
         <v>330</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G3" s="6">
         <f>0.9*E3</f>
@@ -804,7 +786,7 @@
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="Q3" s="7">
         <f>IF(E3=H3, 1, IF(F3=$F$2, 1, 0))</f>
@@ -828,7 +810,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G4" s="6">
         <v>0.23</v>
@@ -841,7 +823,7 @@
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="7">
         <f t="shared" ref="Q4" si="0">IF(E4=H4, 1, IF(F4=$F$2, 1, 0))</f>
@@ -865,7 +847,7 @@
         <v>0.27650000000000002</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G5" s="3">
         <v>0.21629999999999999</v>
@@ -878,7 +860,7 @@
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
@@ -898,7 +880,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G6" s="3">
         <v>6.7000000000000004E-2</v>
@@ -911,12 +893,12 @@
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
@@ -931,7 +913,7 @@
         <v>1.0105599999999999</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G7" s="3">
         <f>(0.35/0.38)*E7</f>
@@ -947,12 +929,12 @@
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
@@ -980,12 +962,12 @@
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
@@ -1011,49 +993,47 @@
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="E10" s="3">
-        <f>3.908*13385.197</f>
-        <v>52309.349876</v>
+        <v>50997</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G10" s="3">
-        <f>0.8*E10</f>
-        <v>41847.479900800005</v>
+        <f>0.8*H10</f>
+        <v>40797.600000000006</v>
       </c>
       <c r="H10" s="3">
-        <f>E10</f>
-        <v>52309.349876</v>
+        <v>50997</v>
       </c>
       <c r="I10" s="3">
-        <f>1.2*E10</f>
-        <v>62771.219851199996</v>
+        <f>1.2*H10</f>
+        <v>61196.399999999994</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
@@ -1079,12 +1059,12 @@
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>7</v>
@@ -1110,15 +1090,15 @@
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>27</v>
@@ -1140,18 +1120,18 @@
         <v>101.9</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>27</v>
@@ -1173,24 +1153,24 @@
         <v>14.909000000000001</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E15" s="3">
         <v>10</v>
@@ -1209,15 +1189,15 @@
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>27</v>
@@ -1240,7 +1220,7 @@
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -1248,7 +1228,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>27</v>
@@ -1272,15 +1252,15 @@
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>27</v>
@@ -1305,15 +1285,15 @@
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>27</v>
@@ -1322,194 +1302,189 @@
         <v>20</v>
       </c>
       <c r="E19" s="3">
-        <v>0.40479999999999999</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G19" s="3">
-        <f>0.8*E19</f>
-        <v>0.32384000000000002</v>
+        <f>E19*0.8</f>
+        <v>0.27120000000000005</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3">
-        <f>1.2*E19</f>
-        <v>0.48575999999999997</v>
+        <f>E19*1.2</f>
+        <v>0.40679999999999999</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E20" s="3">
-        <v>35.9</v>
+        <v>8.856E-2</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="3">
         <f>E20*0.8</f>
-        <v>28.72</v>
+        <v>7.0848000000000008E-2</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3">
         <f>E20*1.2</f>
-        <v>43.08</v>
+        <v>0.10627199999999999</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="C21" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0.12</v>
+        <v>20</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.2087</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="3">
-        <f>E21*0.8</f>
-        <v>9.6000000000000002E-2</v>
+        <v>4.6300000000000001E-2</v>
       </c>
       <c r="H21" s="3"/>
-      <c r="I21" s="3">
-        <f>E21*1.2</f>
-        <v>0.14399999999999999</v>
+      <c r="I21" s="4">
+        <v>0.34</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>0.33900000000000002</v>
+        <v>1</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="3">
-        <f>E22*0.8</f>
-        <v>0.27120000000000005</v>
+        <v>0.8</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3">
-        <f>E22*1.2</f>
-        <v>0.40679999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E23" s="3">
-        <v>8.856E-2</v>
+        <v>8</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="3">
-        <f>E23*0.8</f>
-        <v>7.0848000000000008E-2</v>
+        <v>2</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3">
-        <f>E23*1.2</f>
-        <v>0.10627199999999999</v>
+        <v>14</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E24" s="3">
-        <v>0.2087</v>
+        <v>0.95</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G24" s="3">
-        <v>4.6300000000000001E-2</v>
+        <f>1-2*(1-E24)</f>
+        <v>0.89999999999999991</v>
       </c>
       <c r="H24" s="3"/>
-      <c r="I24" s="4">
-        <v>0.34</v>
+      <c r="I24" s="3">
+        <v>1</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>27</v>
@@ -1518,92 +1493,97 @@
         <v>8</v>
       </c>
       <c r="E25" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G25" s="3">
-        <v>0.8</v>
+        <f>E25*0.8</f>
+        <v>0.4</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3">
-        <v>1.2</v>
+        <f>E25*1.2</f>
+        <v>0.6</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E26" s="3">
-        <v>8</v>
+        <v>0.05</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G26" s="3">
-        <v>2</v>
+        <f>E26*0.8</f>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3">
-        <v>14</v>
+        <f>E26*1.2</f>
+        <v>0.06</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E27" s="3">
-        <v>0.95</v>
+        <v>168</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="G27" s="3">
-        <f>1-2*(1-E27)</f>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="H27" s="3"/>
+        <v>134.4</v>
+      </c>
+      <c r="H27" s="3">
+        <v>168</v>
+      </c>
       <c r="I27" s="3">
-        <v>1</v>
+        <v>201.6</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>27</v>
@@ -1612,31 +1592,31 @@
         <v>8</v>
       </c>
       <c r="E28" s="3">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G28" s="3">
-        <f>E28*0.8</f>
-        <v>0.4</v>
+        <f>E28*0.9</f>
+        <v>0.72000000000000008</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3">
-        <f>E28*1.2</f>
-        <v>0.6</v>
+        <f>E28*1.1</f>
+        <v>0.88000000000000012</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>27</v>
@@ -1645,122 +1625,23 @@
         <v>8</v>
       </c>
       <c r="E29" s="3">
-        <v>0.05</v>
+        <v>0.85</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G29" s="3">
-        <f>E29*0.8</f>
-        <v>4.0000000000000008E-2</v>
+        <f>E29*0.9</f>
+        <v>0.76500000000000001</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3">
-        <f>E29*1.2</f>
-        <v>0.06</v>
+        <f>E29*1.1</f>
+        <v>0.93500000000000005</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="3">
-        <v>168</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G30" s="3">
-        <v>134.4</v>
-      </c>
-      <c r="H30" s="3">
-        <v>168</v>
-      </c>
-      <c r="I30" s="3">
-        <v>201.6</v>
-      </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="3">
-        <f>E31*0.9</f>
-        <v>0.72000000000000008</v>
-      </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3">
-        <f>E31*1.1</f>
-        <v>0.88000000000000012</v>
-      </c>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="3">
-        <f>E32*0.9</f>
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3">
-        <f>E32*1.1</f>
-        <v>0.93500000000000005</v>
-      </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
